--- a/p1-3. Приведення таблиць до НФ.xlsx
+++ b/p1-3. Приведення таблиць до НФ.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
   <si>
     <t>Початкова таблиця:</t>
   </si>
@@ -140,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -171,6 +171,11 @@
       <sz val="12.0"/>
       <color rgb="FF0D0D0D"/>
       <name val="Söhne"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="&quot;Google Sans&quot;"/>
     </font>
   </fonts>
   <fills count="5">
@@ -235,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -290,6 +295,9 @@
     </xf>
     <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1169,6 +1177,9 @@
       <c r="C69" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="D69" s="19" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="10">
@@ -1180,6 +1191,9 @@
       <c r="C70" s="12">
         <v>1.0</v>
       </c>
+      <c r="D70" s="13">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="10">
@@ -1191,6 +1205,9 @@
       <c r="C71" s="12">
         <v>2.0</v>
       </c>
+      <c r="D71" s="13">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="10">
@@ -1200,6 +1217,9 @@
         <v>25</v>
       </c>
       <c r="C72" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="D72" s="13">
         <v>3.0</v>
       </c>
     </row>
